--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Battery_Replacement.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Battery_Replacement.xlsx
@@ -1522,10 +1522,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1534,15 +1534,17 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -1551,7 +1553,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1564,55 +1566,67 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1631,7 +1645,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1648,8 +1662,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1748,9 +1762,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E16C23-54B4-4557-82D1-9E33D446F577}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AC3086-F18E-47F1-9AC9-9D97D70F42F5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A98BAA6-4530-4D20-ADBE-C15F45E9C23D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D98422-0FB5-4572-A554-67E05FB6098B}"/>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Battery_Replacement.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Battery_Replacement.xlsx
@@ -1522,8 +1522,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -1761,10 +1761,24 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AC3086-F18E-47F1-9AC9-9D97D70F42F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B306210E-43F6-4285-8B82-442BD96500E6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D98422-0FB5-4572-A554-67E05FB6098B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83619C7E-9F22-4FAC-AA77-473445EB372A}"/>
 </file>